--- a/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1912696910792558</v>
+        <v>0.1929238099085405</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1579889487253519</v>
+        <v>0.1595258317376267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1759776886453349</v>
+        <v>0.1747294561548082</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2736699650978352</v>
+        <v>0.2709871946673434</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2643873359657155</v>
+        <v>0.2644515432544424</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3038810829076716</v>
+        <v>0.3044128559842849</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2839729632002513</v>
+        <v>0.290373597130041</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3656200117754031</v>
+        <v>0.3636288690931763</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2356829417401667</v>
+        <v>0.2359515387530874</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.23798058630543</v>
+        <v>0.2426674307308073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2424065312238591</v>
+        <v>0.2399668917605287</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3287634495950536</v>
+        <v>0.3297831555022037</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2525872789014393</v>
+        <v>0.2506687403765108</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2206508712161806</v>
+        <v>0.2184692851325957</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2387771417319385</v>
+        <v>0.2378817892805275</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3475605830498487</v>
+        <v>0.3442340325517786</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3333183302514977</v>
+        <v>0.3303775519067365</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.377928792996842</v>
+        <v>0.3771926512146851</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3591480515180417</v>
+        <v>0.3674328762895748</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.422384995832114</v>
+        <v>0.4209354566513701</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2829898711023532</v>
+        <v>0.2832113134472036</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2870757376982722</v>
+        <v>0.2919434467031112</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2901029171940926</v>
+        <v>0.2890576024922292</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3745258492841274</v>
+        <v>0.3764843402765907</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.302930609517603</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3731373685867484</v>
+        <v>0.3731373685867483</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2115975608271692</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1331139158902297</v>
+        <v>0.1329409117037077</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1807376723109755</v>
+        <v>0.1845296914695011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1600340768852429</v>
+        <v>0.1616397610249596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2131158818286157</v>
+        <v>0.2117637078499864</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2405226865374621</v>
+        <v>0.2389921296781071</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.28585767562682</v>
+        <v>0.2846456156363054</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2695995332044376</v>
+        <v>0.2750105917174933</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3501868460138978</v>
+        <v>0.3470616323665195</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1927548001278949</v>
+        <v>0.1925823600049648</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2408221308697742</v>
+        <v>0.2411812269424382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2253732737088177</v>
+        <v>0.2274929590304207</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2891487332674355</v>
+        <v>0.2881921371585499</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.18010977330828</v>
+        <v>0.177881382457438</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2344130371844929</v>
+        <v>0.2347524214849676</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2093056638254613</v>
+        <v>0.2119076940607024</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2668459670728867</v>
+        <v>0.2677043821532052</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2978359044451295</v>
+        <v>0.2964521573587892</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.346506954662789</v>
+        <v>0.3453866085051834</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3311164370605438</v>
+        <v>0.3338973357953174</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3997952328296525</v>
+        <v>0.4010418413385038</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2308365902843747</v>
+        <v>0.2306043780115563</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2802256214188779</v>
+        <v>0.280189594056399</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2644153047472686</v>
+        <v>0.2669822827618413</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.326430762183436</v>
+        <v>0.3270054150068942</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2654870788562457</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3069016424170883</v>
+        <v>0.3069016424170884</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2722319950021211</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1625689392400252</v>
+        <v>0.160824358238986</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1075881831493477</v>
+        <v>0.1068115106460968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1441857397207139</v>
+        <v>0.146525823758878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2095393824775575</v>
+        <v>0.2057554444123084</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3180637611458676</v>
+        <v>0.3139191388637826</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2538152393065567</v>
+        <v>0.2533184816586682</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.237111208416438</v>
+        <v>0.233500802070564</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2791408345398746</v>
+        <v>0.2785236788043818</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2499003047101339</v>
+        <v>0.2493146683729058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1882349054950844</v>
+        <v>0.1870906167175717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1969937541546872</v>
+        <v>0.2005851468395864</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2522020662568664</v>
+        <v>0.2512466960803121</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2277764819456315</v>
+        <v>0.2244886179461018</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1602608473261876</v>
+        <v>0.1605596774660785</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2009359178347884</v>
+        <v>0.2022697313137299</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2779074590759834</v>
+        <v>0.2738876078245921</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.388498282951373</v>
+        <v>0.3870860353187234</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3170991844879166</v>
+        <v>0.3188605361217677</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3027832931966912</v>
+        <v>0.2994170256989485</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3358161444773792</v>
+        <v>0.3353648650462874</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2983967312657726</v>
+        <v>0.2969336398504226</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2319999404236999</v>
+        <v>0.2320253569124645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2419486362183804</v>
+        <v>0.2430962361379425</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2973091569410665</v>
+        <v>0.2967305047282128</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1460377630571203</v>
+        <v>0.1473163169403614</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.185061360487389</v>
+        <v>0.187350522663968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1564327864551265</v>
+        <v>0.1580032689255905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2522513659395281</v>
+        <v>0.2535706772600311</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2457453123276791</v>
+        <v>0.2455019737360761</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2883995436198207</v>
+        <v>0.2872666599316063</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2370849778427125</v>
+        <v>0.2377554268873536</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3747912705389141</v>
+        <v>0.3787376040854152</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.207511341978184</v>
+        <v>0.2062399547561074</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2479758729286803</v>
+        <v>0.2471336058559293</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.207150840360263</v>
+        <v>0.2056658110681405</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3255508365656425</v>
+        <v>0.3249792183957234</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1938543484461135</v>
+        <v>0.1958036291240148</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2422001374098357</v>
+        <v>0.2422292489592375</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2090043814261391</v>
+        <v>0.2104215049927997</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3113984630564048</v>
+        <v>0.3141609531428392</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2991310287474279</v>
+        <v>0.3001316853189536</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3491466382190661</v>
+        <v>0.3456636065210937</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2972256755672364</v>
+        <v>0.2950343066844347</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4277689450904659</v>
+        <v>0.4286113328225428</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2423165589131155</v>
+        <v>0.2425033245379735</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2881793263295946</v>
+        <v>0.2885741827803298</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2447176243464112</v>
+        <v>0.2434261662388792</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.365355197159393</v>
+        <v>0.3663646574738957</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2881251362814253</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3712598008806118</v>
+        <v>0.3712598008806117</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2377480754111515</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1686066687995799</v>
+        <v>0.1677094434853398</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1744584313400576</v>
+        <v>0.174481370876464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1720163303739993</v>
+        <v>0.1712501373155456</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2489176637320382</v>
+        <v>0.2491692203955087</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2763915148759407</v>
+        <v>0.2774934538337981</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2974834022449004</v>
+        <v>0.2976058103708598</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.27265021915454</v>
+        <v>0.2721171031673614</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3559603317005495</v>
+        <v>0.3582958653595232</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2268916521119225</v>
+        <v>0.2270837719820155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2425802104768902</v>
+        <v>0.2420568086695676</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2271103144975584</v>
+        <v>0.2283115880945399</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3081067402087963</v>
+        <v>0.3084040983296282</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1955425101857123</v>
+        <v>0.1948612947337807</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2013739416689959</v>
+        <v>0.203735477094097</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2001913144920861</v>
+        <v>0.1986435844570186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2796016931752824</v>
+        <v>0.2801714503891268</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3070229447498261</v>
+        <v>0.3076926647884504</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3301404297280862</v>
+        <v>0.3280554706314672</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3052493027386323</v>
+        <v>0.3048176084556649</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.382669681052642</v>
+        <v>0.3861327028256145</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2479160208090878</v>
+        <v>0.2483616620316756</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2642823074072024</v>
+        <v>0.2634081510032076</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2482629598699192</v>
+        <v>0.2492274347496997</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3289728541307135</v>
+        <v>0.3292569966909226</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>132743</v>
+        <v>133891</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>110247</v>
+        <v>111320</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>117738</v>
+        <v>116903</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>188752</v>
+        <v>186901</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>181991</v>
+        <v>182035</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>211251</v>
+        <v>211621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>189143</v>
+        <v>193406</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>268041</v>
+        <v>266581</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>325799</v>
+        <v>326171</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>331505</v>
+        <v>338034</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>323639</v>
+        <v>320382</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>467771</v>
+        <v>469222</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>175299</v>
+        <v>173967</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>153974</v>
+        <v>152451</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>159754</v>
+        <v>159155</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>239714</v>
+        <v>237420</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>229440</v>
+        <v>227416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>262727</v>
+        <v>262215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>239214</v>
+        <v>244732</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>309656</v>
+        <v>308593</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>391195</v>
+        <v>391501</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>399894</v>
+        <v>406675</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>387319</v>
+        <v>385923</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>532882</v>
+        <v>535669</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>128029</v>
+        <v>127863</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>183185</v>
+        <v>187028</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>162589</v>
+        <v>164220</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>222983</v>
+        <v>221568</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>232920</v>
+        <v>231438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>294489</v>
+        <v>293240</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>280340</v>
+        <v>285967</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>374420</v>
+        <v>371078</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>372054</v>
+        <v>371721</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>492176</v>
+        <v>492910</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>463324</v>
+        <v>467681</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>611694</v>
+        <v>609670</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>173230</v>
+        <v>171086</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>237587</v>
+        <v>237931</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>212647</v>
+        <v>215291</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>279201</v>
+        <v>280099</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>288422</v>
+        <v>287082</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>356969</v>
+        <v>355815</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>344308</v>
+        <v>347200</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>427461</v>
+        <v>428794</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>445559</v>
+        <v>445111</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>572706</v>
+        <v>572633</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>543586</v>
+        <v>548864</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>690564</v>
+        <v>691780</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>110304</v>
+        <v>109121</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>81177</v>
+        <v>80591</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>108532</v>
+        <v>110294</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>168275</v>
+        <v>165237</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>217505</v>
+        <v>214671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>197259</v>
+        <v>196873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>184591</v>
+        <v>181780</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>226551</v>
+        <v>226050</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>340452</v>
+        <v>339654</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>288317</v>
+        <v>286564</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>301642</v>
+        <v>307141</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>407224</v>
+        <v>405682</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>154548</v>
+        <v>152318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>120919</v>
+        <v>121144</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>151250</v>
+        <v>152254</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>223180</v>
+        <v>219952</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>265671</v>
+        <v>264705</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>246441</v>
+        <v>247810</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>235716</v>
+        <v>233096</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>272549</v>
+        <v>272183</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>406521</v>
+        <v>404528</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>355351</v>
+        <v>355390</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>370478</v>
+        <v>372235</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>480058</v>
+        <v>479123</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>137600</v>
+        <v>138805</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>174664</v>
+        <v>176825</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>145778</v>
+        <v>147242</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>249744</v>
+        <v>251051</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>255234</v>
+        <v>254981</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>303368</v>
+        <v>302176</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>245997</v>
+        <v>246693</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>418596</v>
+        <v>423004</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>411046</v>
+        <v>408527</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>494890</v>
+        <v>493209</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>407979</v>
+        <v>405055</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>685916</v>
+        <v>684712</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>182654</v>
+        <v>184490</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>228593</v>
+        <v>228620</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>194769</v>
+        <v>196089</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>308304</v>
+        <v>311039</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>310681</v>
+        <v>311720</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>367268</v>
+        <v>363604</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>308399</v>
+        <v>306125</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>477766</v>
+        <v>478707</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>479989</v>
+        <v>480359</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>575125</v>
+        <v>575913</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>481966</v>
+        <v>479423</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>769781</v>
+        <v>771908</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>552447</v>
+        <v>549507</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>594849</v>
+        <v>594927</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>579631</v>
+        <v>577050</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>878465</v>
+        <v>879353</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>933981</v>
+        <v>937705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1057388</v>
+        <v>1057823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>960271</v>
+        <v>958393</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1328015</v>
+        <v>1336728</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1510132</v>
+        <v>1511411</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1689360</v>
+        <v>1685715</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1565158</v>
+        <v>1573436</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2236835</v>
+        <v>2238993</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>640703</v>
+        <v>638471</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>686622</v>
+        <v>694674</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>674571</v>
+        <v>669355</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>986754</v>
+        <v>988764</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1037491</v>
+        <v>1039754</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1173466</v>
+        <v>1166055</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1075085</v>
+        <v>1073564</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1427662</v>
+        <v>1440582</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1650065</v>
+        <v>1653031</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1840497</v>
+        <v>1834409</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1710933</v>
+        <v>1717580</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2388321</v>
+        <v>2390384</v>
       </c>
     </row>
     <row r="24">
